--- a/biology/Médecine/Réponse_hémodynamique/Réponse_hémodynamique.xlsx
+++ b/biology/Médecine/Réponse_hémodynamique/Réponse_hémodynamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9ponse_h%C3%A9modynamique</t>
+          <t>Réponse_hémodynamique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réponse hémodynamique est un mécanisme physiologique qui consiste en une augmentation locale du débit sanguin afin de subvenir au besoin énergétiques des cellules en activité. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9ponse_h%C3%A9modynamique</t>
+          <t>Réponse_hémodynamique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Réponse hémodynamique cérébrale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas du cerveau, l'activité électrique et biochimique des neurones consomme de l'énergie qui est apportée par le sang sous forme de glucose et de dioxygène (via son transporteur sanguin, l'hémoglobine). Lorsqu'une région du cerveau est active on observe une réponse hémodynamique locale : la perfusion cérébrale, c'est-à-dire le débit sanguin, augmente (d'environ 5 %) dans cette région seulement avec un délai de quelques secondes.  En localisant précisément les régions où le débit sanguin a augmenté, on peut donc déterminer les régions qui ont été actives. C'est ce mécanisme qui est à la base de l'imagerie par résonance magnétique fonctionnelle (IRMf). 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9ponse_h%C3%A9modynamique</t>
+          <t>Réponse_hémodynamique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
